--- a/nodeJS/api/data.xlsx
+++ b/nodeJS/api/data.xlsx
@@ -14,33 +14,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>646e466866a9994502a2ba78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6463d8e72bb4c8f5dd6b4010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6463b34eb6c620ddc36c5df7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>645e6d2904c632aea244c40d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>645e6bc98a479105782b2e53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64576e4636933c2bc480bb2a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6456a75fa99b65d22b25c3a5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>644d9da78421836b8d9187f6</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34" count="34">
+  <x:si>
+    <x:t>serial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>allowance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>taxInclusive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osama Kofahi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed May 24 2023 20:16:01 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yousef 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed May 17 2023 22:25:32 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Otaibi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue May 16 2023 19:35:14 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00012</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Fri May 12 2023 19:45:09 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri May 12 2023 19:39:11 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun May 07 2023 12:16:15 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdullah TEST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat May 06 2023 22:14:15 GMT+0300 (GMT+03:00)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV-00008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 30 2023 01:42:51 GMT+0300 (GMT+03:00)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,49 +478,157 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
+      <x:c r="C7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
